--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3139067.331732758</v>
+        <v>3157442.021198877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>117.5821407032223</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>300.8915849827645</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.270565549321646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.4899179565721</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>105.0314420927888</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>178.322342100869</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>280.3408772460432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>302.8212816137518</v>
+        <v>216.5271503917501</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>206.3517689015295</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.91413898973477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527404</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>77.09075258260982</v>
+        <v>73.21532344290755</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>92.26446238800023</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.98360398438619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>144.4797853959761</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>51.20625352634712</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>95.21726345495343</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498018</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>161.4046520073177</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>26.27694844301186</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>104.4356141147672</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.4368981413427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>121.4557673726581</v>
+        <v>133.9620172021099</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>53.98383637884854</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>29.30655540895098</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>98.14361023919679</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>66.98836639312854</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>80.37630218413079</v>
+        <v>114.4449296640509</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>5.1077313359463</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>212.9745759966893</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>737.1647017090463</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>326.1787969194388</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.4036268380756</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380756</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380756</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380756</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.784139101298</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D5" t="n">
-        <v>798.518440494548</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>798.518440494548</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>387.5325357049405</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017522</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>444.956380927603</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1117.800419524901</v>
+        <v>2130.832271356581</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.800419524901</v>
+        <v>1761.86975441617</v>
       </c>
       <c r="D8" t="n">
-        <v>759.5347209181509</v>
+        <v>1403.604055809419</v>
       </c>
       <c r="E8" t="n">
-        <v>373.7464683199067</v>
+        <v>1017.815803211175</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564835</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564835</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.400259589023</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245974</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245974</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245974</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187105</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1560728187105</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>259.1560728187105</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,64 +5018,64 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5127,7 +5127,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1050.134140516355</v>
+        <v>171.1719636248389</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>391.964542768369</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>171.1719636248389</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,7 +5264,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X16" t="n">
-        <v>425.7555037884359</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.7555037884359</v>
+        <v>936.0662010112164</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,7 +5507,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,22 +5598,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859783</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2484.468242641993</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1336.117678709276</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1336.117678709276</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>1336.117678709276</v>
+        <v>4340.970093724448</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.117678709276</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.700508672316</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>3865.493026375031</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028479</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>3883.555759916434</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4553.019521219094</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4697.8195709867</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>4474.034155776206</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U25" t="n">
-        <v>4184.905516989764</v>
+        <v>4499.451682200965</v>
       </c>
       <c r="V25" t="n">
-        <v>3930.221028783877</v>
+        <v>4499.451682200965</v>
       </c>
       <c r="W25" t="n">
-        <v>3640.803858746916</v>
+        <v>4499.451682200965</v>
       </c>
       <c r="X25" t="n">
-        <v>3640.803858746916</v>
+        <v>4271.462131302947</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746916</v>
+        <v>4050.669552159417</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>3571.106248489713</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>882.7763375151577</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="C28" t="n">
-        <v>713.8401545872508</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4755.364053706447</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4755.364053706447</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4755.364053706447</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4466.235414920005</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>4211.550926714118</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.424802345397</v>
+        <v>3922.133756677158</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3757.185126911405</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C31" t="n">
-        <v>3757.185126911405</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>3607.06848749907</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227851</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>4449.043340922136</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="W31" t="n">
-        <v>4159.626170885175</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="X31" t="n">
-        <v>4159.626170885175</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y31" t="n">
-        <v>3938.833591741645</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,10 +6695,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6707,43 +6707,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>2786.87950510831</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>3177.427413012049</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>3484.747546292011</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>4289.159124556161</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359327</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>3203.974306639288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>4008.385884903439</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>4287.925950122136</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1469.31368933674</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>786.7196401483878</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1320.176150561012</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1031.04751177457</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>776.3630235686835</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>486.9458535317228</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X40" t="n">
-        <v>486.9458535317228</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.1532743881928</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7415,7 +7415,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>4270.206469545892</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4549.746534764589</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V43" t="n">
-        <v>1128.599447747086</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="W43" t="n">
-        <v>839.1822777101255</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="X43" t="n">
-        <v>611.1927268121082</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y43" t="n">
-        <v>390.400147668578</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>3776.138751166741</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3570.689985294727</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>3570.689985294727</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4855.695248432528</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4631.909833222034</v>
+        <v>972.79532269519</v>
       </c>
       <c r="U46" t="n">
-        <v>4342.781194435592</v>
+        <v>683.6666839087482</v>
       </c>
       <c r="V46" t="n">
-        <v>4088.096706229705</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="W46" t="n">
-        <v>3798.679536192744</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="X46" t="n">
-        <v>3570.689985294727</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y46" t="n">
-        <v>3570.689985294727</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.269243651622</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>94.13752431970596</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>5.100663089359699</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>15.83804904622806</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>80.50021372615237</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>145.2351313103783</v>
       </c>
       <c r="M33" t="n">
-        <v>73.64859338270679</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524669962</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>134.4977453535108</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>19.14409596996995</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>403.7628319612151</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>199.7396287231149</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>90.15606851601801</v>
+        <v>94.03149765572029</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>87.56751779393707</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>209.726051404651</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>81.2298699930611</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>146.7145564572561</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>191.0200889436239</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>36.51615797628551</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>259.9604039555655</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>5.52873828902554</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.14775521075205</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>130.6818759511699</v>
+        <v>118.1756261217181</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>56.43540908542344</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>80.6577969948418</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>69.10321085943104</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>154.5591946652607</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>171.7613411396972</v>
+        <v>137.6927136597771</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>192.8130786476569</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.57298506169991</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541051</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541046</v>
-      </c>
       <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="L2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541048</v>
@@ -26350,10 +26350,10 @@
         <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029918</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151960.5513785815</v>
+        <v>-149432.2302151391</v>
       </c>
       <c r="C6" t="n">
-        <v>438007.327835963</v>
+        <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
-        <v>438007.3278359632</v>
+        <v>440535.6489994053</v>
       </c>
       <c r="E6" t="n">
-        <v>16263.67433819323</v>
+        <v>18298.49357619</v>
       </c>
       <c r="F6" t="n">
-        <v>541423.7108150888</v>
+        <v>543458.5300530856</v>
       </c>
       <c r="G6" t="n">
-        <v>541423.7108150889</v>
+        <v>543458.5300530856</v>
       </c>
       <c r="H6" t="n">
-        <v>541423.7108150894</v>
+        <v>543458.5300530859</v>
       </c>
       <c r="I6" t="n">
-        <v>541423.7108150888</v>
+        <v>543458.5300530859</v>
       </c>
       <c r="J6" t="n">
-        <v>365000.4916224962</v>
+        <v>367035.3108604929</v>
       </c>
       <c r="K6" t="n">
-        <v>541423.7108150889</v>
+        <v>543458.5300530859</v>
       </c>
       <c r="L6" t="n">
-        <v>541423.7108150892</v>
+        <v>543458.5300530862</v>
       </c>
       <c r="M6" t="n">
-        <v>406622.6955812518</v>
+        <v>408657.5148192486</v>
       </c>
       <c r="N6" t="n">
-        <v>541423.7108150889</v>
+        <v>543458.5300530858</v>
       </c>
       <c r="O6" t="n">
-        <v>541423.7108150891</v>
+        <v>543458.5300530859</v>
       </c>
       <c r="P6" t="n">
-        <v>541423.7108150887</v>
+        <v>543458.5300530862</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>23.03118778159268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>159.9762555493062</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>34.0330803800189</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>249.6515995278942</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>235.461827919926</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>5.94099699593454</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>281.9691557715223</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>104.0547641279597</v>
+        <v>190.3488953499614</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>18.68333655655474</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.67051436236</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-4.828951333145716e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35735,7 +35735,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>343.3952292757303</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.5103663981263</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221117</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>155.6761016772989</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>222.9314639777528</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36674,16 +36674,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206558</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>390.9245907766187</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36929,10 +36929,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>394.4928362664027</v>
       </c>
       <c r="M33" t="n">
-        <v>384.0729704331731</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782243</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>416.8614475946189</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
@@ -37643,7 +37643,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>226.2375109014947</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38096,28 +38096,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>736.957405359228</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642231</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3157442.021198877</v>
+        <v>3232971.690863682</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8589681.258093165</v>
+        <v>8589681.258093163</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>300.8915849827645</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>34.37491744524209</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.8588907202408</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>252.4899179565721</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>275.2487801718087</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0314420927888</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>69.75041800665538</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4.553842565068688</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>216.5271503917501</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>134.3090400691497</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.91385451133345</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3517689015295</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.21532344290755</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.26446238800023</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>142.8790185229511</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45.7252303353178</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>144.4797853959761</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>95.21726345495343</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>188.1674640904437</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>26.27694844301186</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>53.73898991290852</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.4356141147672</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>73.50096938092145</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>133.9620172021099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>88.40546239687089</v>
       </c>
       <c r="I34" t="n">
-        <v>53.98383637884854</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.30655540895098</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>98.14361023919679</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>111.1836666084325</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.38537889855481</v>
       </c>
       <c r="V43" t="n">
-        <v>114.4449296640509</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>212.9745759966893</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1226.5574020672</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>840.7691494689561</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>429.7832446793486</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>415.8598406179395</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>88.66512065394232</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620844</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216728</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620844</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2130.832271356581</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C8" t="n">
-        <v>1761.86975441617</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D8" t="n">
-        <v>1403.604055809419</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1017.815803211175</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4796,19 +4798,19 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2561.483393978677</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2561.483393978677</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2307.721608616769</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2307.721608616769</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>352.226339726024</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>205.3363922281136</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>205.3363922281136</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>205.3363922281136</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>69.00748132676188</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,10 +5044,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.1719636248389</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033469</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663864</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>391.964542768369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1719636248389</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,25 +5266,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>190.6805289025653</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.8697743566707</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C16" t="n">
-        <v>673.9335914287639</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="X16" t="n">
-        <v>936.0662010112164</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.0662010112164</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5519,7 +5521,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>627.7391298106763</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>889.3582447451976</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>720.4220618172907</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059909</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>1071.006709575437</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>292.8275092861694</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>539.5926371926334</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>846.9127704725951</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3865.493026375031</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C22" t="n">
-        <v>3865.493026375031</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D22" t="n">
-        <v>3865.493026375031</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792637</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>4340.970093724448</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>4086.285605518561</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>4086.285605518561</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X22" t="n">
-        <v>4086.285605518561</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="Y22" t="n">
-        <v>3865.493026375031</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028479</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.555759916434</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4553.019521219094</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3869.021087329177</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C25" t="n">
-        <v>3869.021087329177</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329177</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746784</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4499.451682200965</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4499.451682200965</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>4499.451682200965</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>4271.462131302947</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y25" t="n">
-        <v>4050.669552159417</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,7 +6217,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>3571.106248489713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.133756677158</v>
+        <v>618.005323167752</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677158</v>
+        <v>618.005323167752</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677158</v>
+        <v>618.005323167752</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094764</v>
+        <v>470.0922295853588</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4755.364053706447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4755.364053706447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4755.364053706447</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>4466.235414920005</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>4211.550926714118</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.133756677158</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.133756677158</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.133756677158</v>
+        <v>799.6537879979917</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6476,22 +6478,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>921.5583256030199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V31" t="n">
-        <v>963.3973594422661</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W31" t="n">
-        <v>963.3973594422661</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>963.3973594422661</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.6047802987359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515096</v>
@@ -6722,28 +6724,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.87950510831</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>3177.427413012049</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>468.5954956259884</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="C34" t="n">
-        <v>299.6593126980815</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="D34" t="n">
-        <v>299.6593126980815</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="E34" t="n">
-        <v>151.7462191156884</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="F34" t="n">
-        <v>151.7462191156884</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="G34" t="n">
-        <v>151.7462191156884</v>
+        <v>186.515538325812</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240057</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="X34" t="n">
-        <v>468.5954956259884</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="Y34" t="n">
-        <v>468.5954956259884</v>
+        <v>354.6908600059914</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1469.31368933674</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1269.393679252292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.393679252292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1269.393679252292</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>1014.709191046405</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>1014.709191046405</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>786.7196401483878</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.9270610048577</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920732</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.3586382081045</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>675.0071030383442</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X40" t="n">
-        <v>675.0071030383442</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.0071030383442</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,34 +7423,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4270.206469545892</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4549.746534764589</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488384</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V43" t="n">
-        <v>783.1915791942415</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W43" t="n">
-        <v>783.1915791942415</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X43" t="n">
-        <v>783.1915791942415</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y43" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502708</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>3776.138751166741</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T46" t="n">
-        <v>972.79532269519</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U46" t="n">
-        <v>683.6666839087482</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>428.9821957028613</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>428.9821957028613</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>428.9821957028613</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.49733361305233</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>94.13752431970596</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>5.100663089359699</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.83804904622806</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.1113620226429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>80.50021372615237</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2351313103783</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.623080587109</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>134.4977453535108</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.14409596996995</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231149</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>94.03149765572029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.56751779393707</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>78.66854253543812</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.8902426828946</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.2298699930611</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>191.0200889436239</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>37.54219129859342</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279319</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>259.9604039555655</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>91.68205811002272</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.52873828902554</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>124.4198406026818</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>118.1756261217181</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>60.50836597066524</v>
       </c>
       <c r="I34" t="n">
-        <v>56.43540908542344</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.6577969948418</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.10321085943104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>175.3393317281585</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.8519735000226</v>
       </c>
       <c r="V43" t="n">
-        <v>137.6927136597771</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8.57298506169991</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896024</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896024</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
-      </c>
       <c r="E2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541048</v>
@@ -26341,19 +26343,19 @@
         <v>664749.4015541049</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26454,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151391</v>
+        <v>-149432.2302151389</v>
       </c>
       <c r="C6" t="n">
+        <v>440535.6489994052</v>
+      </c>
+      <c r="D6" t="n">
         <v>440535.6489994054</v>
       </c>
-      <c r="D6" t="n">
-        <v>440535.6489994053</v>
-      </c>
       <c r="E6" t="n">
-        <v>18298.49357619</v>
+        <v>18298.49357618988</v>
       </c>
       <c r="F6" t="n">
         <v>543458.5300530856</v>
       </c>
       <c r="G6" t="n">
-        <v>543458.5300530856</v>
+        <v>543458.5300530859</v>
       </c>
       <c r="H6" t="n">
         <v>543458.5300530859</v>
       </c>
       <c r="I6" t="n">
-        <v>543458.5300530859</v>
+        <v>543458.5300530854</v>
       </c>
       <c r="J6" t="n">
         <v>367035.3108604929</v>
       </c>
       <c r="K6" t="n">
+        <v>543458.530053086</v>
+      </c>
+      <c r="L6" t="n">
         <v>543458.5300530859</v>
       </c>
-      <c r="L6" t="n">
-        <v>543458.5300530862</v>
-      </c>
       <c r="M6" t="n">
-        <v>408657.5148192486</v>
+        <v>408657.514819249</v>
       </c>
       <c r="N6" t="n">
-        <v>543458.5300530858</v>
+        <v>543458.5300530856</v>
       </c>
       <c r="O6" t="n">
         <v>543458.5300530859</v>
       </c>
       <c r="P6" t="n">
-        <v>543458.5300530862</v>
+        <v>543458.5300530859</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>23.03118778159268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>117.5563987996192</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>147.4509115388101</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>34.0330803800189</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>107.4850614916718</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>249.6515995278942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>110.0815621752819</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9691557715223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>190.3488953499614</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>40.10667273982176</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.28610467720355</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>18.68333655655474</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35507,7 +35509,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.40751256795902</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>353.8818559928188</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35887,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35896,7 +35898,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>343.3952292757303</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>155.6761016772989</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,19 +36211,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>222.9314639777528</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>725.3059354206558</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>390.9245907766187</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>406.7164955186337</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>416.8614475946189</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>226.2375109014947</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>354.1326152325992</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3232971.690863682</v>
+        <v>3225954.675971972</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8589681.258093163</v>
+        <v>8589681.258093165</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="I2" t="n">
-        <v>34.37491744524209</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.8588907202408</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275.2487801718087</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>399.3976635617693</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.75041800665538</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>134.3090400691497</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.91385451133345</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338504</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>142.8790185229511</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.7252303353178</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>139.9695281564227</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>188.1674640904437</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>53.73898991290852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>73.50096938092145</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>91.94988401775056</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>88.40546239687089</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>79.06553162826584</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>111.1836666084325</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>179.5232416718491</v>
       </c>
     </row>
     <row r="41">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.38537889855481</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>1584.823100673951</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>1226.5574020672</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E2" t="n">
-        <v>840.7691494689561</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F2" t="n">
-        <v>429.7832446793486</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G2" t="n">
-        <v>415.8598406179395</v>
+        <v>164.4907215210846</v>
       </c>
       <c r="H2" t="n">
-        <v>88.66512065394232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>269.7756312415667</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6589918292309</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407.4645182330357</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>407.4645182330357</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2561.483393978677</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2561.483393978677</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2307.721608616769</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.721608616769</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.952953346655</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.952953346655</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.952953346655</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084171</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084171</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084171</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>352.226339726024</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F10" t="n">
-        <v>205.3363922281136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>205.3363922281136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>205.3363922281136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>69.00748132676188</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084171</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110079</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555206</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.771599890051</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1154.674019541181</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1154.674019541181</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1154.674019541181</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1154.674019541181</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>889.3582447451976</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>720.4220618172907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.6713633309776</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6713633309776</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768803</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X22" t="n">
-        <v>653.6713633309776</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.6713633309776</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,31 +6004,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336716</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.9805482336716</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,7 +6217,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>618.005323167752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>618.005323167752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>618.005323167752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>470.0922295853588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141522</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141522</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.446367141522</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>799.6537879979917</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>800.6837097077201</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V31" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354.6908600059914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>354.6908600059914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>354.6908600059914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>354.6908600059914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>354.6908600059914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>186.515538325812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.052097196018</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.921157035281</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488389</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V34" t="n">
-        <v>644.108030042952</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W34" t="n">
-        <v>354.6908600059914</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X34" t="n">
-        <v>354.6908600059914</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y34" t="n">
-        <v>354.6908600059914</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,13 +7195,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665166</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2486.320249703573</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>562.7003690904323</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X40" t="n">
-        <v>562.7003690904323</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1236.990827242591</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>982.3063390367042</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>692.8891689997437</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>464.8996181017263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814577</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>104.6241510367944</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.6266194094365</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>78.66854253543812</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.8902426828946</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>8.645944861789644</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>37.54219129859342</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>2.105225817279319</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>91.68205811002272</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>124.4198406026818</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>60.50836597066524</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>30.89882077552696</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>175.3393317281585</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>39.0614116802457</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.8519735000226</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896024</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896024</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541045</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="M2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="N2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338369</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230223</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="M4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151389</v>
+        <v>-149432.2302151388</v>
       </c>
       <c r="C6" t="n">
         <v>440535.6489994052</v>
       </c>
       <c r="D6" t="n">
-        <v>440535.6489994054</v>
+        <v>440535.6489994056</v>
       </c>
       <c r="E6" t="n">
-        <v>18298.49357618988</v>
+        <v>17323.90231646773</v>
       </c>
       <c r="F6" t="n">
-        <v>543458.5300530856</v>
+        <v>542483.9387933644</v>
       </c>
       <c r="G6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="H6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933641</v>
       </c>
       <c r="I6" t="n">
-        <v>543458.5300530854</v>
+        <v>542483.9387933643</v>
       </c>
       <c r="J6" t="n">
-        <v>367035.3108604929</v>
+        <v>366060.7196007713</v>
       </c>
       <c r="K6" t="n">
-        <v>543458.530053086</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="L6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="M6" t="n">
-        <v>408657.514819249</v>
+        <v>407682.9235595268</v>
       </c>
       <c r="N6" t="n">
-        <v>543458.5300530856</v>
+        <v>542483.9387933641</v>
       </c>
       <c r="O6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933641</v>
       </c>
       <c r="P6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.938793364</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,16 +26758,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>214.4805104606442</v>
       </c>
       <c r="I2" t="n">
-        <v>117.5563987996192</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>147.4509115388101</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>132.7129449912583</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107.4850614916718</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7.478382179942116</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.0815621752819</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>40.10667273982176</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>203.7209664948858</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.1031945837915</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>30.28610467720355</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.108446667785756e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330525</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>353.8818559928188</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.6396521945106</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>354.1326152325992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225954.675971972</v>
+        <v>3230893.938821005</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>286.6124481592858</v>
       </c>
       <c r="H2" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>399.3976635617693</v>
+        <v>322.9987519619215</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.3159054168623</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>47.50320101340354</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338504</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151923</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20.76378193035877</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,10 +1821,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.84391799868221</v>
       </c>
       <c r="D22" t="n">
-        <v>139.9695281564227</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>27.26009267756244</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>211.2541671901477</v>
+        <v>198.6852311277638</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>91.94988401775056</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>77.8682875383153</v>
       </c>
     </row>
     <row r="32">
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>79.06553162826584</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.4948608924529</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>215.705391967079</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.5232416718491</v>
+        <v>25.25394580996855</v>
       </c>
     </row>
     <row r="41">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3596263316971</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="E2" t="n">
-        <v>185.3596263316971</v>
+        <v>907.9023860081004</v>
       </c>
       <c r="F2" t="n">
-        <v>178.4141255824937</v>
+        <v>496.9164812184928</v>
       </c>
       <c r="G2" t="n">
-        <v>164.4907215210846</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1507.144219645282</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.352320482495</v>
+        <v>1138.181702704871</v>
       </c>
       <c r="D5" t="n">
-        <v>857.0866218757444</v>
+        <v>779.9160040981203</v>
       </c>
       <c r="E5" t="n">
-        <v>471.2983692775002</v>
+        <v>394.1277514998761</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1893.744059709404</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2649.166059691552</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.103172347981</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.334517077867</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464703</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110079</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555206</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619849</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.0805560595687</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.0805560595687</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.0805560595687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>446.7290208898085</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>446.7290208898085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5785,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590536</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536.9315552689001</v>
+        <v>310.8124359217956</v>
       </c>
       <c r="C22" t="n">
-        <v>536.9315552689001</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124302</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689001</v>
+        <v>492.4609007520353</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.460813324402</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>982.3321745379599</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>727.647686332073</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,37 +6451,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6645,25 +6645,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>982.3321745379599</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>727.647686332073</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y31" t="n">
         <v>278.8655562905255</v>
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.052097196018</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1219.13208711157</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1219.13208711157</v>
+        <v>1255.018075309169</v>
       </c>
       <c r="U34" t="n">
-        <v>1219.13208711157</v>
+        <v>1255.018075309169</v>
       </c>
       <c r="V34" t="n">
-        <v>964.447598905683</v>
+        <v>1255.018075309169</v>
       </c>
       <c r="W34" t="n">
-        <v>675.0304288687223</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="X34" t="n">
-        <v>447.040877970705</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.040877970705</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,10 +7198,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7368,16 +7368,16 @@
         <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1357418247858</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W40" t="n">
-        <v>674.7185717878251</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X40" t="n">
-        <v>446.7290208898078</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7596,19 +7596,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814577</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305164</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799497</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>125.6701807162104</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.4029030999456</v>
       </c>
       <c r="D22" t="n">
-        <v>8.645944861789644</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>75.26883114644332</v>
+        <v>87.83776720882716</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>140.7163658137795</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.89882077552696</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>90.05270016593636</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>2.879261385015838</v>
       </c>
     </row>
     <row r="38">
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25608,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.0614116802457</v>
+        <v>193.3307075421262</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846413</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="E2" t="n">
+        <v>664749.4015541052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>664749.4015541046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541049</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541048</v>
@@ -26343,19 +26343,19 @@
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="N2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230223</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230228</v>
@@ -26444,16 +26444,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151388</v>
+        <v>-149432.2302151391</v>
       </c>
       <c r="C6" t="n">
-        <v>440535.6489994052</v>
+        <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
-        <v>440535.6489994056</v>
+        <v>440535.6489994057</v>
       </c>
       <c r="E6" t="n">
-        <v>17323.90231646773</v>
+        <v>18201.03445021808</v>
       </c>
       <c r="F6" t="n">
-        <v>542483.9387933644</v>
+        <v>543361.0709271133</v>
       </c>
       <c r="G6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.070927114</v>
       </c>
       <c r="H6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271139</v>
       </c>
       <c r="I6" t="n">
-        <v>542483.9387933643</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="J6" t="n">
-        <v>366060.7196007713</v>
+        <v>366937.8517345211</v>
       </c>
       <c r="K6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="L6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271139</v>
       </c>
       <c r="M6" t="n">
-        <v>407682.9235595268</v>
+        <v>408560.0556932766</v>
       </c>
       <c r="N6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271135</v>
       </c>
       <c r="O6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="P6" t="n">
-        <v>542483.938793364</v>
+        <v>543361.0709271136</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541006</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>127.1717218615092</v>
       </c>
       <c r="H2" t="n">
-        <v>214.4805104606442</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.7129449912583</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.478382179942116</v>
+        <v>83.87729377978997</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>203.7209664948858</v>
+        <v>224.6860133799318</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>102.1031945837915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330525</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541599</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
